--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200550.6900807487</v>
+        <v>-202898.8389639391</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5860219.813005071</v>
+        <v>5860219.813005097</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673414</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>276.7277642294575</v>
+        <v>255.3690217493203</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>44.60563665982766</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>85.87170836083649</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>334.2270161962487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>123.0607915108177</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>53.66801292410052</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>248.5936046973754</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>203.643706007948</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>99.69856304335869</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>105.7970792681972</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>250.7751150690186</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.3743830274884</v>
       </c>
       <c r="H11" t="n">
-        <v>299.2435417191563</v>
+        <v>299.2435417191562</v>
       </c>
       <c r="I11" t="n">
-        <v>59.0280031854109</v>
+        <v>59.02800318540929</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.5026916989982</v>
+        <v>119.5026916989978</v>
       </c>
       <c r="T11" t="n">
-        <v>205.8994777944583</v>
+        <v>205.8994777944582</v>
       </c>
       <c r="U11" t="n">
         <v>251.0313845488248</v>
@@ -1464,10 +1464,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H12" t="n">
-        <v>91.93595037119258</v>
+        <v>91.93595037119249</v>
       </c>
       <c r="I12" t="n">
-        <v>17.0301356476751</v>
+        <v>17.03013564767475</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>132.6421372620749</v>
+        <v>132.6421372620748</v>
       </c>
       <c r="T12" t="n">
         <v>191.6927782578487</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>58.09833177928764</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5602830177929</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.06186232216658</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5.888341080439083</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,10 +1622,10 @@
         <v>411.3743830274884</v>
       </c>
       <c r="H14" t="n">
-        <v>299.2435417191563</v>
+        <v>299.2435417191562</v>
       </c>
       <c r="I14" t="n">
-        <v>59.02800318541</v>
+        <v>59.02800318540929</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.5026916989982</v>
+        <v>119.5026916989978</v>
       </c>
       <c r="T14" t="n">
-        <v>205.8994777944583</v>
+        <v>205.8994777944582</v>
       </c>
       <c r="U14" t="n">
         <v>251.0313845488248</v>
@@ -1701,10 +1701,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H15" t="n">
-        <v>91.93595037119258</v>
+        <v>91.93595037119249</v>
       </c>
       <c r="I15" t="n">
-        <v>17.0301356476751</v>
+        <v>17.03013564767475</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>132.6421372620749</v>
+        <v>132.6421372620748</v>
       </c>
       <c r="T15" t="n">
         <v>191.6927782578487</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>81.67302058791418</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.4585828702527</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>98.06186232216658</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>266.9343551776176</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.3743830274884</v>
       </c>
       <c r="H17" t="n">
-        <v>299.2435417191563</v>
+        <v>299.2435417191562</v>
       </c>
       <c r="I17" t="n">
-        <v>59.02800318541</v>
+        <v>59.02800318540935</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.5026916989982</v>
+        <v>119.5026916989978</v>
       </c>
       <c r="T17" t="n">
-        <v>205.8994777944583</v>
+        <v>205.8994777944582</v>
       </c>
       <c r="U17" t="n">
         <v>251.0313845488248</v>
@@ -1938,10 +1938,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H18" t="n">
-        <v>91.93595037119258</v>
+        <v>91.93595037119249</v>
       </c>
       <c r="I18" t="n">
-        <v>17.0301356476751</v>
+        <v>17.03013564767478</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>132.6421372620749</v>
+        <v>132.6421372620748</v>
       </c>
       <c r="T18" t="n">
         <v>191.6927782578487</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>59.03335553202089</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>97.77683052390265</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.0618623221666</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.3743830274884</v>
       </c>
       <c r="H20" t="n">
-        <v>299.2435417191563</v>
+        <v>299.2435417191562</v>
       </c>
       <c r="I20" t="n">
-        <v>59.02800318540977</v>
+        <v>59.02800318540935</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.5026916989981</v>
+        <v>119.5026916989978</v>
       </c>
       <c r="T20" t="n">
-        <v>205.8994777944583</v>
+        <v>205.8994777944582</v>
       </c>
       <c r="U20" t="n">
         <v>251.0313845488248</v>
@@ -2175,10 +2175,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H21" t="n">
-        <v>91.93595037119255</v>
+        <v>91.93595037119249</v>
       </c>
       <c r="I21" t="n">
-        <v>17.03013564767498</v>
+        <v>17.03013564767478</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>132.6421372620749</v>
+        <v>132.6421372620748</v>
       </c>
       <c r="T21" t="n">
         <v>191.6927782578487</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>81.13316148706177</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.0618623221666</v>
       </c>
       <c r="S22" t="n">
-        <v>193.3075723195359</v>
+        <v>193.3075723195358</v>
       </c>
       <c r="T22" t="n">
         <v>220.4165116571834</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.5701110044339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>411.3743830274884</v>
       </c>
       <c r="H23" t="n">
-        <v>299.2435417191563</v>
+        <v>299.2435417191562</v>
       </c>
       <c r="I23" t="n">
-        <v>59.02800318540972</v>
+        <v>59.02800318540929</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.5026916989981</v>
+        <v>119.5026916989978</v>
       </c>
       <c r="T23" t="n">
-        <v>205.8994777944583</v>
+        <v>205.8994777944582</v>
       </c>
       <c r="U23" t="n">
         <v>251.0313845488248</v>
@@ -2412,10 +2412,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H24" t="n">
-        <v>91.93595037119255</v>
+        <v>91.93595037119249</v>
       </c>
       <c r="I24" t="n">
-        <v>17.03013564767497</v>
+        <v>17.03013564767475</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>132.6421372620749</v>
+        <v>132.6421372620748</v>
       </c>
       <c r="T24" t="n">
         <v>191.6927782578487</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>2.569989127590645</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.3075723195358</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>286.2229134700513</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>66.00755537364608</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,10 +2570,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292631</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2728,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>80.7160676450474</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>229.3426408321171</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>59.42234841526891</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.41670903610036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>147.0633545968148</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>117.0859349823487</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797657</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433897</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572928</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124549</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3487,7 +3487,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
         <v>171.6095167335022</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800351</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797657</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1583.378275356799</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="C2" t="n">
-        <v>1583.378275356799</v>
+        <v>1589.326341994619</v>
       </c>
       <c r="D2" t="n">
-        <v>1225.112576750049</v>
+        <v>1589.326341994619</v>
       </c>
       <c r="E2" t="n">
-        <v>1225.112576750049</v>
+        <v>1203.538089396375</v>
       </c>
       <c r="F2" t="n">
-        <v>814.1266719604412</v>
+        <v>792.5521846067672</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,7 +4331,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1583.378275356799</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>1583.378275356799</v>
+        <v>1958.288858935031</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9727148150933</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9727148150933</v>
+        <v>471.4038777286581</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1512.612574238667</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1143.650057298256</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.212414302789</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.7225141620388</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C7" t="n">
-        <v>470.7225141620388</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>470.7225141620388</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>322.8094205796457</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>322.8094205796457</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8096203179781</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8096203179781</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.7225141620388</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1209.883828352468</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>824.0955757542238</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>413.1096709646162</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.237294627169</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2111.475509265261</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>1780.41262192169</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>1780.41262192169</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X8" t="n">
-        <v>1780.41262192169</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>337.1618402196266</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C10" t="n">
-        <v>337.1618402196266</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>337.1618402196266</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036444</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>591.8463284255134</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>591.8463284255134</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="V10" t="n">
-        <v>337.1618402196266</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="W10" t="n">
-        <v>337.1618402196266</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="X10" t="n">
-        <v>337.1618402196266</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="Y10" t="n">
-        <v>337.1618402196266</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="11">
@@ -5027,46 +5027,46 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F11" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256897</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1703491999442</v>
+        <v>458.1703491999434</v>
       </c>
       <c r="H11" t="n">
-        <v>155.9041454432208</v>
+        <v>155.9041454432201</v>
       </c>
       <c r="I11" t="n">
-        <v>96.27989980139253</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J11" t="n">
-        <v>247.1244892489105</v>
+        <v>247.1244892489121</v>
       </c>
       <c r="K11" t="n">
-        <v>644.7964102540209</v>
+        <v>536.4075299175382</v>
       </c>
       <c r="L11" t="n">
-        <v>1438.596824639879</v>
+        <v>1330.207944303399</v>
       </c>
       <c r="M11" t="n">
-        <v>2338.459280082471</v>
+        <v>2230.070399745994</v>
       </c>
       <c r="N11" t="n">
-        <v>3238.250453285544</v>
+        <v>3129.86157294907</v>
       </c>
       <c r="O11" t="n">
-        <v>4042.710105236854</v>
+        <v>3934.321224900384</v>
       </c>
       <c r="P11" t="n">
-        <v>4373.042702348162</v>
+        <v>4583.234543101463</v>
       </c>
       <c r="Q11" t="n">
-        <v>4783.127819896832</v>
+        <v>4783.127819896829</v>
       </c>
       <c r="R11" t="n">
-        <v>4813.994990069627</v>
+        <v>4813.994990069625</v>
       </c>
       <c r="S11" t="n">
-        <v>4693.285200474678</v>
+        <v>4693.285200474677</v>
       </c>
       <c r="T11" t="n">
         <v>4485.305929975225</v>
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>972.1138448854196</v>
+        <v>972.1138448854191</v>
       </c>
       <c r="C12" t="n">
-        <v>797.6608156042926</v>
+        <v>797.6608156042921</v>
       </c>
       <c r="D12" t="n">
-        <v>648.7264059430413</v>
+        <v>648.7264059430408</v>
       </c>
       <c r="E12" t="n">
-        <v>489.4889509375857</v>
+        <v>489.4889509375853</v>
       </c>
       <c r="F12" t="n">
-        <v>342.9543929644707</v>
+        <v>342.9543929644702</v>
       </c>
       <c r="G12" t="n">
-        <v>206.3466533558043</v>
+        <v>206.3466533558039</v>
       </c>
       <c r="H12" t="n">
-        <v>113.4820570212664</v>
+        <v>113.482057021266</v>
       </c>
       <c r="I12" t="n">
-        <v>96.27989980139253</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J12" t="n">
-        <v>167.3040569304505</v>
+        <v>167.3040569304514</v>
       </c>
       <c r="K12" t="n">
-        <v>628.6710633926948</v>
+        <v>535.0627614491582</v>
       </c>
       <c r="L12" t="n">
-        <v>943.3083942425221</v>
+        <v>849.7000922989876</v>
       </c>
       <c r="M12" t="n">
-        <v>1329.832187032394</v>
+        <v>1236.223885088862</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.994759395719</v>
+        <v>1647.38645745219</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.908390780837</v>
+        <v>2001.300088837309</v>
       </c>
       <c r="P12" t="n">
-        <v>2359.622215301015</v>
+        <v>2266.013913357489</v>
       </c>
       <c r="Q12" t="n">
         <v>2601.025413179288</v>
@@ -5154,7 +5154,7 @@
         <v>2045.330445835918</v>
       </c>
       <c r="V12" t="n">
-        <v>1810.178337604176</v>
+        <v>1810.178337604175</v>
       </c>
       <c r="W12" t="n">
         <v>1555.940980875974</v>
@@ -5163,7 +5163,7 @@
         <v>1348.089480670441</v>
       </c>
       <c r="Y12" t="n">
-        <v>1140.329181905488</v>
+        <v>1140.329181905487</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1026.084387253784</v>
+        <v>449.768124497138</v>
       </c>
       <c r="C13" t="n">
-        <v>857.1482043258767</v>
+        <v>391.082940881696</v>
       </c>
       <c r="D13" t="n">
-        <v>707.0315649135409</v>
+        <v>391.082940881696</v>
       </c>
       <c r="E13" t="n">
-        <v>559.1184713311478</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="F13" t="n">
-        <v>412.2285238332375</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="G13" t="n">
-        <v>244.320589718355</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="H13" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="I13" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J13" t="n">
-        <v>127.1906975445494</v>
+        <v>127.1906975445502</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8234703720049</v>
+        <v>307.8234703720063</v>
       </c>
       <c r="L13" t="n">
-        <v>594.4976645070647</v>
+        <v>594.4976645070673</v>
       </c>
       <c r="M13" t="n">
-        <v>907.1445306290216</v>
+        <v>907.1445306290229</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.791969496555</v>
+        <v>1217.791969496557</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.708863521205</v>
+        <v>1488.708863521209</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.004386470092</v>
+        <v>1697.004386470097</v>
       </c>
       <c r="Q13" t="n">
-        <v>1757.782329600042</v>
+        <v>1757.782329600045</v>
       </c>
       <c r="R13" t="n">
-        <v>1757.782329600042</v>
+        <v>1658.729943416038</v>
       </c>
       <c r="S13" t="n">
-        <v>1757.782329600042</v>
+        <v>1658.729943416038</v>
       </c>
       <c r="T13" t="n">
-        <v>1751.834510326871</v>
+        <v>1658.729943416038</v>
       </c>
       <c r="U13" t="n">
-        <v>1751.834510326871</v>
+        <v>1369.615889405886</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.150022120984</v>
+        <v>1369.615889405886</v>
       </c>
       <c r="W13" t="n">
-        <v>1207.732852084023</v>
+        <v>1080.198719368925</v>
       </c>
       <c r="X13" t="n">
-        <v>1207.732852084023</v>
+        <v>852.2091684709076</v>
       </c>
       <c r="Y13" t="n">
-        <v>1207.732852084023</v>
+        <v>631.4165893273778</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.702401960704</v>
+        <v>2397.702401960703</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.739885020293</v>
+        <v>2028.739885020292</v>
       </c>
       <c r="D14" t="n">
         <v>1670.474186413542</v>
@@ -5264,64 +5264,64 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F14" t="n">
-        <v>873.7000290256904</v>
+        <v>873.7000290256897</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1703491999444</v>
+        <v>458.1703491999433</v>
       </c>
       <c r="H14" t="n">
-        <v>155.9041454432208</v>
+        <v>155.9041454432201</v>
       </c>
       <c r="I14" t="n">
-        <v>96.27989980139253</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J14" t="n">
-        <v>247.1244892489105</v>
+        <v>247.1244892489121</v>
       </c>
       <c r="K14" t="n">
-        <v>844.8439030962304</v>
+        <v>844.8439030962343</v>
       </c>
       <c r="L14" t="n">
-        <v>1638.644317482088</v>
+        <v>1638.644317482095</v>
       </c>
       <c r="M14" t="n">
-        <v>2538.50677292468</v>
+        <v>2538.50677292469</v>
       </c>
       <c r="N14" t="n">
-        <v>3438.297946127753</v>
+        <v>3438.297946127766</v>
       </c>
       <c r="O14" t="n">
-        <v>4242.757598079064</v>
+        <v>4242.757598079081</v>
       </c>
       <c r="P14" t="n">
-        <v>4583.234543101468</v>
+        <v>4583.234543101463</v>
       </c>
       <c r="Q14" t="n">
-        <v>4783.127819896832</v>
+        <v>4783.127819896829</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.994990069627</v>
+        <v>4813.994990069625</v>
       </c>
       <c r="S14" t="n">
-        <v>4693.285200474679</v>
+        <v>4693.285200474677</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.305929975227</v>
+        <v>4485.305929975224</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.738874875404</v>
+        <v>4231.738874875402</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.675987531833</v>
+        <v>3900.675987531831</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.907332261719</v>
+        <v>3547.907332261717</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.441574000639</v>
+        <v>3174.441574000637</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.302242024827</v>
+        <v>2784.302242024825</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>972.1138448854196</v>
+        <v>972.1138448854191</v>
       </c>
       <c r="C15" t="n">
-        <v>797.6608156042926</v>
+        <v>797.6608156042921</v>
       </c>
       <c r="D15" t="n">
-        <v>648.7264059430413</v>
+        <v>648.7264059430408</v>
       </c>
       <c r="E15" t="n">
-        <v>489.4889509375857</v>
+        <v>489.4889509375853</v>
       </c>
       <c r="F15" t="n">
-        <v>342.9543929644707</v>
+        <v>342.9543929644702</v>
       </c>
       <c r="G15" t="n">
-        <v>206.3466533558043</v>
+        <v>206.3466533558039</v>
       </c>
       <c r="H15" t="n">
-        <v>113.4820570212664</v>
+        <v>113.482057021266</v>
       </c>
       <c r="I15" t="n">
-        <v>96.27989980139253</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J15" t="n">
-        <v>167.3040569304505</v>
+        <v>167.3040569304514</v>
       </c>
       <c r="K15" t="n">
-        <v>375.907334457237</v>
+        <v>628.6710633926973</v>
       </c>
       <c r="L15" t="n">
-        <v>1057.676607157489</v>
+        <v>943.3083942425267</v>
       </c>
       <c r="M15" t="n">
-        <v>1444.20039994736</v>
+        <v>1329.832187032401</v>
       </c>
       <c r="N15" t="n">
-        <v>1855.362972310686</v>
+        <v>1740.994759395729</v>
       </c>
       <c r="O15" t="n">
-        <v>2209.276603695803</v>
+        <v>2094.908390780849</v>
       </c>
       <c r="P15" t="n">
-        <v>2473.990428215981</v>
+        <v>2473.99042821598</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.025413179288</v>
@@ -5391,7 +5391,7 @@
         <v>2045.330445835918</v>
       </c>
       <c r="V15" t="n">
-        <v>1810.178337604176</v>
+        <v>1810.178337604175</v>
       </c>
       <c r="W15" t="n">
         <v>1555.940980875974</v>
@@ -5400,7 +5400,7 @@
         <v>1348.089480670441</v>
       </c>
       <c r="Y15" t="n">
-        <v>1140.329181905488</v>
+        <v>1140.329181905487</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>475.7844873054912</v>
+        <v>979.4612658922081</v>
       </c>
       <c r="C16" t="n">
-        <v>475.7844873054912</v>
+        <v>810.5250829643012</v>
       </c>
       <c r="D16" t="n">
-        <v>325.6678478931556</v>
+        <v>810.5250829643012</v>
       </c>
       <c r="E16" t="n">
-        <v>325.6678478931556</v>
+        <v>662.6119893819081</v>
       </c>
       <c r="F16" t="n">
-        <v>178.7779003952452</v>
+        <v>515.7220418839977</v>
       </c>
       <c r="G16" t="n">
-        <v>96.27989980139253</v>
+        <v>347.8141077691152</v>
       </c>
       <c r="H16" t="n">
-        <v>96.27989980139253</v>
+        <v>199.7734178521528</v>
       </c>
       <c r="I16" t="n">
-        <v>96.27989980139253</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J16" t="n">
-        <v>127.1906975445495</v>
+        <v>127.1906975445499</v>
       </c>
       <c r="K16" t="n">
-        <v>307.823470372005</v>
+        <v>307.8234703720063</v>
       </c>
       <c r="L16" t="n">
-        <v>594.4976645070647</v>
+        <v>594.4976645070674</v>
       </c>
       <c r="M16" t="n">
-        <v>907.1445306290188</v>
+        <v>907.1445306290229</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.791969496552</v>
+        <v>1217.791969496557</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.708863521202</v>
+        <v>1488.708863521209</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.004386470092</v>
+        <v>1697.004386470097</v>
       </c>
       <c r="Q16" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600045</v>
       </c>
       <c r="R16" t="n">
-        <v>1757.782329600039</v>
+        <v>1658.729943416039</v>
       </c>
       <c r="S16" t="n">
-        <v>1757.782329600039</v>
+        <v>1658.729943416039</v>
       </c>
       <c r="T16" t="n">
-        <v>1757.782329600039</v>
+        <v>1658.729943416039</v>
       </c>
       <c r="U16" t="n">
-        <v>1468.668275589886</v>
+        <v>1658.729943416039</v>
       </c>
       <c r="V16" t="n">
-        <v>1213.983787383999</v>
+        <v>1658.729943416039</v>
       </c>
       <c r="W16" t="n">
-        <v>924.5666173470387</v>
+        <v>1389.099281620465</v>
       </c>
       <c r="X16" t="n">
-        <v>696.5770664490213</v>
+        <v>1161.109730722448</v>
       </c>
       <c r="Y16" t="n">
-        <v>475.7844873054912</v>
+        <v>1161.109730722448</v>
       </c>
     </row>
     <row r="17">
@@ -5492,73 +5492,73 @@
         <v>2397.702401960702</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.739885020291</v>
+        <v>2028.73988502029</v>
       </c>
       <c r="D17" t="n">
-        <v>1670.474186413541</v>
+        <v>1670.47418641354</v>
       </c>
       <c r="E17" t="n">
-        <v>1284.685933815297</v>
+        <v>1284.685933815296</v>
       </c>
       <c r="F17" t="n">
-        <v>873.7000290256892</v>
+        <v>873.7000290256883</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1703491999433</v>
+        <v>458.1703491999424</v>
       </c>
       <c r="H17" t="n">
-        <v>155.9041454432208</v>
+        <v>155.9041454432201</v>
       </c>
       <c r="I17" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1244892489105</v>
+        <v>247.124489248912</v>
       </c>
       <c r="K17" t="n">
-        <v>844.8439030962304</v>
+        <v>844.843903096234</v>
       </c>
       <c r="L17" t="n">
-        <v>1638.644317482088</v>
+        <v>1638.644317482095</v>
       </c>
       <c r="M17" t="n">
-        <v>2538.50677292468</v>
+        <v>2538.506772924689</v>
       </c>
       <c r="N17" t="n">
-        <v>3438.297946127753</v>
+        <v>3438.297946127765</v>
       </c>
       <c r="O17" t="n">
-        <v>4242.757598079064</v>
+        <v>4242.757598079079</v>
       </c>
       <c r="P17" t="n">
-        <v>4583.234543101467</v>
+        <v>4583.234543101464</v>
       </c>
       <c r="Q17" t="n">
-        <v>4783.127819896831</v>
+        <v>4783.127819896829</v>
       </c>
       <c r="R17" t="n">
-        <v>4813.994990069626</v>
+        <v>4813.994990069625</v>
       </c>
       <c r="S17" t="n">
-        <v>4693.285200474677</v>
+        <v>4693.285200474676</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.305929975224</v>
+        <v>4485.305929975223</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.738874875401</v>
+        <v>4231.7388748754</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.67598753183</v>
+        <v>3900.675987531829</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.907332261716</v>
+        <v>3547.907332261715</v>
       </c>
       <c r="X17" t="n">
-        <v>3174.441574000636</v>
+        <v>3174.441574000635</v>
       </c>
       <c r="Y17" t="n">
-        <v>2784.302242024824</v>
+        <v>2784.302242024823</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>972.1138448854196</v>
+        <v>972.1138448854191</v>
       </c>
       <c r="C18" t="n">
-        <v>797.6608156042926</v>
+        <v>797.6608156042921</v>
       </c>
       <c r="D18" t="n">
-        <v>648.7264059430413</v>
+        <v>648.7264059430408</v>
       </c>
       <c r="E18" t="n">
-        <v>489.4889509375857</v>
+        <v>489.4889509375853</v>
       </c>
       <c r="F18" t="n">
-        <v>342.9543929644707</v>
+        <v>342.9543929644703</v>
       </c>
       <c r="G18" t="n">
-        <v>206.3466533558043</v>
+        <v>206.3466533558039</v>
       </c>
       <c r="H18" t="n">
-        <v>113.4820570212664</v>
+        <v>113.482057021266</v>
       </c>
       <c r="I18" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J18" t="n">
-        <v>167.3040569304505</v>
+        <v>292.1341819174561</v>
       </c>
       <c r="K18" t="n">
-        <v>366.850478750242</v>
+        <v>535.062761449159</v>
       </c>
       <c r="L18" t="n">
-        <v>681.4878096000693</v>
+        <v>849.7000922989882</v>
       </c>
       <c r="M18" t="n">
-        <v>1068.011602389941</v>
+        <v>1236.223885088862</v>
       </c>
       <c r="N18" t="n">
-        <v>1855.362972310686</v>
+        <v>1647.38645745219</v>
       </c>
       <c r="O18" t="n">
-        <v>2209.276603695803</v>
+        <v>2001.300088837309</v>
       </c>
       <c r="P18" t="n">
-        <v>2473.990428215981</v>
+        <v>2266.013913357489</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.025413179288</v>
@@ -5628,7 +5628,7 @@
         <v>2045.330445835918</v>
       </c>
       <c r="V18" t="n">
-        <v>1810.178337604176</v>
+        <v>1810.178337604175</v>
       </c>
       <c r="W18" t="n">
         <v>1555.940980875974</v>
@@ -5637,7 +5637,7 @@
         <v>1348.089480670441</v>
       </c>
       <c r="Y18" t="n">
-        <v>1140.329181905488</v>
+        <v>1140.329181905487</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>473.9341253811572</v>
+        <v>489.8474161583654</v>
       </c>
       <c r="C19" t="n">
-        <v>414.3044733286108</v>
+        <v>489.8474161583654</v>
       </c>
       <c r="D19" t="n">
-        <v>264.1878339162751</v>
+        <v>391.082940881696</v>
       </c>
       <c r="E19" t="n">
-        <v>264.1878339162751</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1878339162751</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="G19" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="H19" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="I19" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J19" t="n">
-        <v>127.1906975445495</v>
+        <v>127.19069754455</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8234703720049</v>
+        <v>307.8234703720063</v>
       </c>
       <c r="L19" t="n">
-        <v>594.4976645070647</v>
+        <v>594.4976645070672</v>
       </c>
       <c r="M19" t="n">
-        <v>907.1445306290188</v>
+        <v>907.1445306290225</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.791969496552</v>
+        <v>1217.791969496557</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.708863521202</v>
+        <v>1488.708863521208</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.00438647009</v>
+        <v>1697.004386470097</v>
       </c>
       <c r="Q19" t="n">
-        <v>1757.782329600037</v>
+        <v>1757.782329600044</v>
       </c>
       <c r="R19" t="n">
-        <v>1757.782329600037</v>
+        <v>1658.729943416037</v>
       </c>
       <c r="S19" t="n">
-        <v>1757.782329600037</v>
+        <v>1658.729943416037</v>
       </c>
       <c r="T19" t="n">
-        <v>1535.139388532175</v>
+        <v>1436.087002348175</v>
       </c>
       <c r="U19" t="n">
-        <v>1246.025334522022</v>
+        <v>1146.972948338022</v>
       </c>
       <c r="V19" t="n">
-        <v>991.3408463161355</v>
+        <v>892.2884601321352</v>
       </c>
       <c r="W19" t="n">
-        <v>701.923676279175</v>
+        <v>892.2884601321352</v>
       </c>
       <c r="X19" t="n">
-        <v>473.9341253811572</v>
+        <v>892.2884601321352</v>
       </c>
       <c r="Y19" t="n">
-        <v>473.9341253811572</v>
+        <v>671.4958809886051</v>
       </c>
     </row>
     <row r="20">
@@ -5738,49 +5738,49 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F20" t="n">
-        <v>873.7000290256899</v>
+        <v>873.7000290256897</v>
       </c>
       <c r="G20" t="n">
-        <v>458.170349199944</v>
+        <v>458.1703491999432</v>
       </c>
       <c r="H20" t="n">
-        <v>155.9041454432205</v>
+        <v>155.9041454432201</v>
       </c>
       <c r="I20" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J20" t="n">
-        <v>247.1244892489111</v>
+        <v>247.124489248912</v>
       </c>
       <c r="K20" t="n">
-        <v>844.8439030962315</v>
+        <v>644.7964102540026</v>
       </c>
       <c r="L20" t="n">
-        <v>1225.159715077144</v>
+        <v>1438.596824639863</v>
       </c>
       <c r="M20" t="n">
-        <v>2125.022170519737</v>
+        <v>2338.459280082458</v>
       </c>
       <c r="N20" t="n">
-        <v>3024.813343722811</v>
+        <v>3238.250453285534</v>
       </c>
       <c r="O20" t="n">
-        <v>3829.272995674123</v>
+        <v>4042.710105236848</v>
       </c>
       <c r="P20" t="n">
-        <v>4373.042702348161</v>
+        <v>4373.042702348158</v>
       </c>
       <c r="Q20" t="n">
-        <v>4783.127819896831</v>
+        <v>4783.127819896829</v>
       </c>
       <c r="R20" t="n">
-        <v>4813.994990069626</v>
+        <v>4813.994990069625</v>
       </c>
       <c r="S20" t="n">
         <v>4693.285200474677</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.305929975225</v>
+        <v>4485.305929975224</v>
       </c>
       <c r="U20" t="n">
         <v>4231.738874875402</v>
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>972.1138448854193</v>
+        <v>972.1138448854191</v>
       </c>
       <c r="C21" t="n">
-        <v>797.6608156042923</v>
+        <v>797.6608156042921</v>
       </c>
       <c r="D21" t="n">
-        <v>648.7264059430411</v>
+        <v>648.7264059430408</v>
       </c>
       <c r="E21" t="n">
-        <v>489.4889509375856</v>
+        <v>489.4889509375853</v>
       </c>
       <c r="F21" t="n">
-        <v>342.9543929644706</v>
+        <v>342.9543929644703</v>
       </c>
       <c r="G21" t="n">
-        <v>206.3466533558042</v>
+        <v>206.3466533558039</v>
       </c>
       <c r="H21" t="n">
-        <v>113.4820570212662</v>
+        <v>113.482057021266</v>
       </c>
       <c r="I21" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J21" t="n">
-        <v>167.3040569304508</v>
+        <v>281.6722698454039</v>
       </c>
       <c r="K21" t="n">
-        <v>628.6710633926956</v>
+        <v>743.0392763076496</v>
       </c>
       <c r="L21" t="n">
-        <v>943.3083942425235</v>
+        <v>1057.676607157479</v>
       </c>
       <c r="M21" t="n">
-        <v>1329.832187032396</v>
+        <v>1444.200399947353</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.994759395722</v>
+        <v>1855.362972310681</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.90839078084</v>
+        <v>2209.2766036958</v>
       </c>
       <c r="P21" t="n">
-        <v>2359.622215301019</v>
+        <v>2473.99042821598</v>
       </c>
       <c r="Q21" t="n">
         <v>2601.025413179288</v>
@@ -5865,7 +5865,7 @@
         <v>2045.330445835918</v>
       </c>
       <c r="V21" t="n">
-        <v>1810.178337604176</v>
+        <v>1810.178337604175</v>
       </c>
       <c r="W21" t="n">
         <v>1555.940980875974</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.27989980139252</v>
+        <v>515.0767052149514</v>
       </c>
       <c r="C22" t="n">
-        <v>96.27989980139252</v>
+        <v>346.1405222870445</v>
       </c>
       <c r="D22" t="n">
-        <v>96.27989980139252</v>
+        <v>346.1405222870445</v>
       </c>
       <c r="E22" t="n">
-        <v>96.27989980139252</v>
+        <v>346.1405222870445</v>
       </c>
       <c r="F22" t="n">
-        <v>96.27989980139252</v>
+        <v>346.1405222870445</v>
       </c>
       <c r="G22" t="n">
-        <v>96.27989980139252</v>
+        <v>178.232588172162</v>
       </c>
       <c r="H22" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="I22" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J22" t="n">
-        <v>127.1906975445497</v>
+        <v>127.19069754455</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8234703720054</v>
+        <v>307.8234703720063</v>
       </c>
       <c r="L22" t="n">
-        <v>594.4976645070655</v>
+        <v>594.4976645070672</v>
       </c>
       <c r="M22" t="n">
-        <v>907.14453062902</v>
+        <v>907.1445306290225</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496557</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.708863521204</v>
+        <v>1488.708863521208</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.004386470092</v>
+        <v>1697.004386470097</v>
       </c>
       <c r="Q22" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600045</v>
       </c>
       <c r="R22" t="n">
-        <v>1757.782329600039</v>
+        <v>1658.729943416038</v>
       </c>
       <c r="S22" t="n">
-        <v>1562.522155539902</v>
+        <v>1463.469769355901</v>
       </c>
       <c r="T22" t="n">
-        <v>1339.87921447204</v>
+        <v>1240.826828288039</v>
       </c>
       <c r="U22" t="n">
-        <v>1050.765160461887</v>
+        <v>1240.826828288039</v>
       </c>
       <c r="V22" t="n">
-        <v>796.0806722560005</v>
+        <v>986.1423400821518</v>
       </c>
       <c r="W22" t="n">
-        <v>506.6635022190399</v>
+        <v>696.7251700451911</v>
       </c>
       <c r="X22" t="n">
-        <v>278.6739513210227</v>
+        <v>696.7251700451911</v>
       </c>
       <c r="Y22" t="n">
-        <v>96.27989980139252</v>
+        <v>696.7251700451911</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.702401960703</v>
+        <v>2397.702401960702</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.73988502029</v>
       </c>
       <c r="D23" t="n">
-        <v>1670.474186413542</v>
+        <v>1670.47418641354</v>
       </c>
       <c r="E23" t="n">
-        <v>1284.685933815298</v>
+        <v>1284.685933815296</v>
       </c>
       <c r="F23" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256883</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1703491999442</v>
+        <v>458.1703491999424</v>
       </c>
       <c r="H23" t="n">
-        <v>155.9041454432205</v>
+        <v>155.9041454432199</v>
       </c>
       <c r="I23" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J23" t="n">
-        <v>414.5301382692642</v>
+        <v>247.1244892489121</v>
       </c>
       <c r="K23" t="n">
-        <v>691.3455936711318</v>
+        <v>844.8439030962343</v>
       </c>
       <c r="L23" t="n">
-        <v>1485.146008056991</v>
+        <v>1638.644317482095</v>
       </c>
       <c r="M23" t="n">
-        <v>2385.008463499584</v>
+        <v>2538.50677292469</v>
       </c>
       <c r="N23" t="n">
-        <v>3284.799636702658</v>
+        <v>3438.297946127766</v>
       </c>
       <c r="O23" t="n">
-        <v>4089.25928865397</v>
+        <v>4242.757598079081</v>
       </c>
       <c r="P23" t="n">
-        <v>4419.59188576528</v>
+        <v>4583.234543101463</v>
       </c>
       <c r="Q23" t="n">
-        <v>4718.068564222578</v>
+        <v>4783.127819896829</v>
       </c>
       <c r="R23" t="n">
-        <v>4813.994990069626</v>
+        <v>4813.994990069625</v>
       </c>
       <c r="S23" t="n">
-        <v>4693.285200474678</v>
+        <v>4693.285200474676</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.305929975225</v>
+        <v>4485.305929975223</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.738874875402</v>
+        <v>4231.7388748754</v>
       </c>
       <c r="V23" t="n">
-        <v>3900.675987531831</v>
+        <v>3900.675987531829</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.907332261717</v>
+        <v>3547.907332261715</v>
       </c>
       <c r="X23" t="n">
-        <v>3174.441574000637</v>
+        <v>3174.441574000635</v>
       </c>
       <c r="Y23" t="n">
-        <v>2784.302242024825</v>
+        <v>2784.302242024823</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>972.1138448854193</v>
+        <v>972.1138448854191</v>
       </c>
       <c r="C24" t="n">
-        <v>797.6608156042923</v>
+        <v>797.6608156042921</v>
       </c>
       <c r="D24" t="n">
-        <v>648.7264059430411</v>
+        <v>648.7264059430408</v>
       </c>
       <c r="E24" t="n">
-        <v>489.4889509375856</v>
+        <v>489.4889509375853</v>
       </c>
       <c r="F24" t="n">
-        <v>342.9543929644706</v>
+        <v>342.9543929644702</v>
       </c>
       <c r="G24" t="n">
-        <v>206.3466533558042</v>
+        <v>206.3466533558039</v>
       </c>
       <c r="H24" t="n">
-        <v>113.4820570212662</v>
+        <v>113.482057021266</v>
       </c>
       <c r="I24" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J24" t="n">
-        <v>292.1341819174556</v>
+        <v>292.1341819174562</v>
       </c>
       <c r="K24" t="n">
-        <v>535.0627614491661</v>
+        <v>535.0627614491582</v>
       </c>
       <c r="L24" t="n">
-        <v>849.7000922989942</v>
+        <v>849.7000922989876</v>
       </c>
       <c r="M24" t="n">
-        <v>1236.223885088867</v>
+        <v>1236.223885088862</v>
       </c>
       <c r="N24" t="n">
-        <v>1647.386457452193</v>
+        <v>1647.38645745219</v>
       </c>
       <c r="O24" t="n">
-        <v>2001.300088837311</v>
+        <v>2001.300088837309</v>
       </c>
       <c r="P24" t="n">
-        <v>2266.01391335749</v>
+        <v>2266.013913357489</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.025413179288</v>
@@ -6102,7 +6102,7 @@
         <v>2045.330445835918</v>
       </c>
       <c r="V24" t="n">
-        <v>1810.178337604176</v>
+        <v>1810.178337604175</v>
       </c>
       <c r="W24" t="n">
         <v>1555.940980875974</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>710.1357632219386</v>
+        <v>98.87584841512069</v>
       </c>
       <c r="C25" t="n">
-        <v>541.1995802940318</v>
+        <v>98.87584841512069</v>
       </c>
       <c r="D25" t="n">
-        <v>391.082940881696</v>
+        <v>98.87584841512069</v>
       </c>
       <c r="E25" t="n">
-        <v>243.1698472993029</v>
+        <v>98.87584841512069</v>
       </c>
       <c r="F25" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="G25" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="H25" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="I25" t="n">
-        <v>96.27989980139252</v>
+        <v>96.2798998013925</v>
       </c>
       <c r="J25" t="n">
-        <v>127.1906975445497</v>
+        <v>127.19069754455</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8234703720055</v>
+        <v>307.8234703720065</v>
       </c>
       <c r="L25" t="n">
-        <v>594.4976645070657</v>
+        <v>594.4976645070674</v>
       </c>
       <c r="M25" t="n">
-        <v>907.1445306290203</v>
+        <v>907.1445306290229</v>
       </c>
       <c r="N25" t="n">
-        <v>1217.791969496554</v>
+        <v>1217.791969496557</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.708863521204</v>
+        <v>1488.708863521209</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.004386470092</v>
+        <v>1697.004386470097</v>
       </c>
       <c r="Q25" t="n">
-        <v>1757.78232960004</v>
+        <v>1757.782329600045</v>
       </c>
       <c r="R25" t="n">
-        <v>1757.78232960004</v>
+        <v>1757.782329600045</v>
       </c>
       <c r="S25" t="n">
-        <v>1757.78232960004</v>
+        <v>1562.522155539908</v>
       </c>
       <c r="T25" t="n">
-        <v>1757.78232960004</v>
+        <v>1562.522155539908</v>
       </c>
       <c r="U25" t="n">
-        <v>1468.668275589887</v>
+        <v>1273.408101529755</v>
       </c>
       <c r="V25" t="n">
-        <v>1468.668275589887</v>
+        <v>1018.723613323869</v>
       </c>
       <c r="W25" t="n">
-        <v>1179.251105552927</v>
+        <v>729.3064432869079</v>
       </c>
       <c r="X25" t="n">
-        <v>1112.576807195708</v>
+        <v>501.3168923888906</v>
       </c>
       <c r="Y25" t="n">
-        <v>891.7842280521784</v>
+        <v>280.5243132453604</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>932.5990189467745</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>411.1769646560685</v>
+        <v>804.8364680322009</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1769646560685</v>
+        <v>804.8364680322009</v>
       </c>
       <c r="D28" t="n">
-        <v>411.1769646560685</v>
+        <v>654.7198286198652</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374722</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1874.81208464506</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U28" t="n">
-        <v>1585.709217770703</v>
+        <v>1724.684232940949</v>
       </c>
       <c r="V28" t="n">
-        <v>1331.024729564816</v>
+        <v>1724.684232940949</v>
       </c>
       <c r="W28" t="n">
-        <v>1041.607559527856</v>
+        <v>1435.267062903988</v>
       </c>
       <c r="X28" t="n">
-        <v>813.6180086298384</v>
+        <v>1207.277512005971</v>
       </c>
       <c r="Y28" t="n">
-        <v>592.8254294863083</v>
+        <v>986.4849328624406</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6467,13 +6467,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736755</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736755</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736755</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736755</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,7 +6619,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953301</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570253</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>673.382774659008</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.9123359039152</v>
+        <v>452.5901955154778</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6792,25 +6792,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839437</v>
+        <v>952.9597618327374</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839437</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839437</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1701.658977898816</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>1583.390356704524</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>1355.400805806507</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>1134.608226662977</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774098</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E37" t="n">
-        <v>463.89815074309</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932533</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160456</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
         <v>437.6816203490197</v>
@@ -7138,7 +7138,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7178,13 +7178,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215049</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160446</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7363,10 +7363,10 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
         <v>1276.596863849072</v>
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7436,19 +7436,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,22 +7488,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902952</v>
@@ -7512,16 +7512,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430899</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7600,19 +7600,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036721</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,19 +7646,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7716,7 +7716,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215049</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416712</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774088</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430893</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932523</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819756</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7828,16 +7828,16 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S46" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142017</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>122.0772379830743</v>
+        <v>12.59352047147172</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8705,10 +8705,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>169.9113966655694</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.5234473888553</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>15.18012378356352</v>
+        <v>15.18012378356289</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>10.24681607181395</v>
+        <v>10.24681607178928</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>9.148339097974684</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>115.5234473888398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.18012378356352</v>
+        <v>15.18012378356289</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>10.24681607181304</v>
+        <v>10.24681607179218</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>43.8203613251616</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>379.9886844014337</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>15.18012378356352</v>
+        <v>15.18012378356295</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>122.0772379830522</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>215.5930399623521</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>115.523447388841</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>115.5234473888512</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>15.18012378356332</v>
+        <v>15.18012378356295</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>10.24681607178928</v>
       </c>
       <c r="Q23" t="n">
-        <v>99.57919359791262</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>43.82036132517021</v>
+        <v>43.82036132516058</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>15.18012378356329</v>
+        <v>15.18012378356289</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>317.5146261106144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,16 +10115,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,16 +10826,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>109.1484893193402</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702527</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.06186232216695</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.307572319536</v>
+        <v>193.3075723195358</v>
       </c>
       <c r="T13" t="n">
-        <v>214.5281705767443</v>
+        <v>220.4165116571833</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2229134700513</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>84.55583418581949</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5602830177929</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.4585828702529</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.06186232216695</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.307572319536</v>
+        <v>193.3075723195359</v>
       </c>
       <c r="T16" t="n">
-        <v>220.4165116571834</v>
+        <v>220.4165116571833</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>19.58864315897344</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>108.2134655666069</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>50.83864249430972</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5602830177929</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I19" t="n">
-        <v>102.4585828702529</v>
+        <v>102.4585828702527</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.06186232216695</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.307572319536</v>
+        <v>193.3075723195358</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5602830177929</v>
+        <v>65.4271215307308</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4585828702528</v>
+        <v>102.4585828702527</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.06186232216683</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.01454234766086</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>142.8510588953406</v>
       </c>
       <c r="G25" t="n">
         <v>166.2288547737337</v>
@@ -24382,7 +24382,7 @@
         <v>146.5602830177928</v>
       </c>
       <c r="I25" t="n">
-        <v>102.4585828702528</v>
+        <v>102.4585828702527</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.0618623221668</v>
+        <v>98.06186232216658</v>
       </c>
       <c r="S25" t="n">
-        <v>193.3075723195359</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.4165116571834</v>
+        <v>220.4165116571833</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>159.7021000153911</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24652,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>138.8328816311218</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>56.86919737349575</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>120.4096317666684</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,7 +24886,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>182.1679443159944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>169.4370633542423</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1129766.267311742</v>
+        <v>1129766.267311743</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1129766.267311742</v>
+        <v>1129766.267311743</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1129766.267311742</v>
+        <v>1129766.267311743</v>
       </c>
     </row>
     <row r="10">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>287364.6194524997</v>
+      </c>
+      <c r="C2" t="n">
         <v>287364.6194524994</v>
       </c>
-      <c r="C2" t="n">
-        <v>287364.6194524993</v>
-      </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
-        <v>276118.0828059801</v>
+        <v>276118.0828059803</v>
       </c>
       <c r="F2" t="n">
         <v>276118.0828059802</v>
       </c>
       <c r="G2" t="n">
-        <v>276118.0828059802</v>
+        <v>276118.0828059801</v>
       </c>
       <c r="H2" t="n">
         <v>276118.0828059801</v>
       </c>
       <c r="I2" t="n">
-        <v>276118.0828059802</v>
+        <v>276118.0828059803</v>
       </c>
       <c r="J2" t="n">
         <v>277957.2508208882</v>
       </c>
       <c r="K2" t="n">
-        <v>277957.2508208881</v>
+        <v>277957.2508208882</v>
       </c>
       <c r="L2" t="n">
         <v>277957.2508208882</v>
       </c>
       <c r="M2" t="n">
+        <v>287364.6194524996</v>
+      </c>
+      <c r="N2" t="n">
         <v>287364.6194524994</v>
-      </c>
-      <c r="N2" t="n">
-        <v>287364.6194524993</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524994</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639598.3910328813</v>
+        <v>639598.3910328848</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.044609689415665e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>257371.5071467806</v>
+        <v>257371.5071467786</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169461.7256516756</v>
+        <v>169461.7256516757</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>26084.25031398463</v>
+        <v>26084.25031398431</v>
       </c>
       <c r="F4" t="n">
-        <v>26084.25031398462</v>
+        <v>26084.2503139843</v>
       </c>
       <c r="G4" t="n">
-        <v>26084.25031398462</v>
+        <v>26084.25031398434</v>
       </c>
       <c r="H4" t="n">
-        <v>26084.25031398454</v>
+        <v>26084.25031398434</v>
       </c>
       <c r="I4" t="n">
-        <v>26084.2503139845</v>
+        <v>26084.2503139843</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.653297409</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.20814694405</v>
       </c>
       <c r="F5" t="n">
-        <v>94475.20814694397</v>
+        <v>94475.20814694405</v>
       </c>
       <c r="G5" t="n">
-        <v>94475.20814694396</v>
+        <v>94475.20814694403</v>
       </c>
       <c r="H5" t="n">
-        <v>94475.20814694399</v>
+        <v>94475.20814694403</v>
       </c>
       <c r="I5" t="n">
-        <v>94475.208146944</v>
+        <v>94475.20814694405</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26497,7 +26497,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-568811.0246825825</v>
+        <v>-568811.0246825822</v>
       </c>
       <c r="C6" t="n">
-        <v>21156.85453196187</v>
+        <v>21156.85453196196</v>
       </c>
       <c r="D6" t="n">
-        <v>21156.85453196187</v>
+        <v>21156.85453196193</v>
       </c>
       <c r="E6" t="n">
-        <v>-484039.7666878299</v>
+        <v>-484120.0990924509</v>
       </c>
       <c r="F6" t="n">
-        <v>155558.6243450516</v>
+        <v>155478.2919404339</v>
       </c>
       <c r="G6" t="n">
-        <v>155558.6243450516</v>
+        <v>155478.291940434</v>
       </c>
       <c r="H6" t="n">
-        <v>155558.6243450505</v>
+        <v>155478.2919404337</v>
       </c>
       <c r="I6" t="n">
-        <v>155558.6243450515</v>
+        <v>155478.2919404337</v>
       </c>
       <c r="J6" t="n">
-        <v>-93946.26689879599</v>
+        <v>-94013.46238901977</v>
       </c>
       <c r="K6" t="n">
-        <v>163425.2402479845</v>
+        <v>163358.0447577588</v>
       </c>
       <c r="L6" t="n">
-        <v>163425.2402479846</v>
+        <v>163358.044757759</v>
       </c>
       <c r="M6" t="n">
-        <v>-16035.43051068729</v>
+        <v>-16035.43051068723</v>
       </c>
       <c r="N6" t="n">
-        <v>153426.2951409882</v>
+        <v>153426.2951409884</v>
       </c>
       <c r="O6" t="n">
         <v>153426.2951409883</v>
       </c>
       <c r="P6" t="n">
-        <v>153426.2951409884</v>
+        <v>153426.2951409883</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>977.178178802094</v>
+        <v>977.1781788020985</v>
       </c>
       <c r="F3" t="n">
-        <v>977.178178802094</v>
+        <v>977.1781788020985</v>
       </c>
       <c r="G3" t="n">
-        <v>977.178178802094</v>
+        <v>977.1781788020982</v>
       </c>
       <c r="H3" t="n">
-        <v>977.1781788020953</v>
+        <v>977.1781788020982</v>
       </c>
       <c r="I3" t="n">
-        <v>977.1781788020957</v>
+        <v>977.1781788020985</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1203.498747517407</v>
+        <v>1203.498747517406</v>
       </c>
       <c r="F4" t="n">
-        <v>1203.498747517407</v>
+        <v>1203.498747517406</v>
       </c>
       <c r="G4" t="n">
         <v>1203.498747517406</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.4345145850075</v>
+        <v>599.4345145850119</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>112.5985217912026</v>
+        <v>112.5985217911998</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.2114747628511</v>
+        <v>529.2114747628507</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>665.3014558420793</v>
+        <v>665.3014558420797</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2114747628511</v>
+        <v>529.2114747628507</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2114747628511</v>
+        <v>529.2114747628507</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>137.0564057913375</v>
+        <v>158.4151482714747</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>135.2263435221096</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>139.8379470282007</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>20.4560254244343</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27667,16 +27667,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>204.6914669593172</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>81.29760886823775</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>3.54403862645259</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>210.140464012847</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>116.7497573142991</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>119.2380261898871</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>35.50675917295914</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.671640686457977e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.144468577784776e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.837363033884704e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31522,7 +31522,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928354487646606</v>
+        <v>3.928354487646624</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23126039661081</v>
+        <v>40.231260396611</v>
       </c>
       <c r="I11" t="n">
-        <v>151.4478863849959</v>
+        <v>151.4478863849966</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4141766958964</v>
+        <v>333.414176695898</v>
       </c>
       <c r="K11" t="n">
-        <v>499.7014221579773</v>
+        <v>499.7014221579797</v>
       </c>
       <c r="L11" t="n">
-        <v>619.9238008092923</v>
+        <v>619.9238008092951</v>
       </c>
       <c r="M11" t="n">
-        <v>689.7846749289776</v>
+        <v>689.7846749289808</v>
       </c>
       <c r="N11" t="n">
-        <v>700.9461121170036</v>
+        <v>700.9461121170068</v>
       </c>
       <c r="O11" t="n">
-        <v>661.8835371804676</v>
+        <v>661.8835371804706</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9022857666919</v>
+        <v>564.9022857666945</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2180906778477</v>
+        <v>424.2180906778497</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7644975846313</v>
+        <v>246.7644975846325</v>
       </c>
       <c r="S11" t="n">
-        <v>89.51737788724712</v>
+        <v>89.51737788724753</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19637176967302</v>
+        <v>17.19637176967311</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3142683590117284</v>
+        <v>0.3142683590117299</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.101854950630919</v>
+        <v>2.101854950630929</v>
       </c>
       <c r="H12" t="n">
-        <v>20.29949386530388</v>
+        <v>20.29949386530398</v>
       </c>
       <c r="I12" t="n">
-        <v>72.36649720373998</v>
+        <v>72.36649720374032</v>
       </c>
       <c r="J12" t="n">
-        <v>198.579199524301</v>
+        <v>198.579199524302</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4034812165726</v>
+        <v>339.4034812165742</v>
       </c>
       <c r="L12" t="n">
-        <v>456.3698654867704</v>
+        <v>456.3698654867725</v>
       </c>
       <c r="M12" t="n">
-        <v>532.5621074471411</v>
+        <v>532.5621074471436</v>
       </c>
       <c r="N12" t="n">
-        <v>546.6574417432582</v>
+        <v>546.6574417432607</v>
       </c>
       <c r="O12" t="n">
-        <v>500.0847609950678</v>
+        <v>500.0847609950702</v>
       </c>
       <c r="P12" t="n">
-        <v>401.3621089498639</v>
+        <v>401.3621089498657</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.299940715624</v>
+        <v>268.2999407156253</v>
       </c>
       <c r="R12" t="n">
-        <v>130.4993801804004</v>
+        <v>130.4993801804011</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04103384176288</v>
+        <v>39.04103384176306</v>
       </c>
       <c r="T12" t="n">
-        <v>8.471950436972868</v>
+        <v>8.471950436972907</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382799309625605</v>
+        <v>0.1382799309625612</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.762124584725087</v>
+        <v>1.762124584725095</v>
       </c>
       <c r="H13" t="n">
-        <v>15.6668894896467</v>
+        <v>15.66688948964677</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99189205700537</v>
+        <v>52.99189205700561</v>
       </c>
       <c r="J13" t="n">
-        <v>124.5822081400637</v>
+        <v>124.5822081400642</v>
       </c>
       <c r="K13" t="n">
-        <v>204.7268381162419</v>
+        <v>204.7268381162429</v>
       </c>
       <c r="L13" t="n">
-        <v>261.9798678054008</v>
+        <v>261.979867805402</v>
       </c>
       <c r="M13" t="n">
-        <v>276.2210383128607</v>
+        <v>276.221038312862</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6531194061583</v>
+        <v>269.6531194061596</v>
       </c>
       <c r="O13" t="n">
-        <v>249.0683003936879</v>
+        <v>249.068300393689</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1209588652959</v>
+        <v>213.1209588652969</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5539049991162</v>
+        <v>147.5539049991169</v>
       </c>
       <c r="R13" t="n">
-        <v>79.23152905500254</v>
+        <v>79.23152905500291</v>
       </c>
       <c r="S13" t="n">
-        <v>30.70902571743628</v>
+        <v>30.70902571743643</v>
       </c>
       <c r="T13" t="n">
-        <v>7.529077771098098</v>
+        <v>7.529077771098133</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09611588643955032</v>
+        <v>0.09611588643955077</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928354487646606</v>
+        <v>3.928354487646624</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23126039661081</v>
+        <v>40.231260396611</v>
       </c>
       <c r="I14" t="n">
-        <v>151.4478863849959</v>
+        <v>151.4478863849966</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4141766958964</v>
+        <v>333.414176695898</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7014221579773</v>
+        <v>499.7014221579797</v>
       </c>
       <c r="L14" t="n">
-        <v>619.9238008092923</v>
+        <v>619.9238008092951</v>
       </c>
       <c r="M14" t="n">
-        <v>689.7846749289776</v>
+        <v>689.7846749289808</v>
       </c>
       <c r="N14" t="n">
-        <v>700.9461121170036</v>
+        <v>700.9461121170068</v>
       </c>
       <c r="O14" t="n">
-        <v>661.8835371804676</v>
+        <v>661.8835371804706</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9022857666919</v>
+        <v>564.9022857666945</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2180906778477</v>
+        <v>424.2180906778497</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7644975846313</v>
+        <v>246.7644975846325</v>
       </c>
       <c r="S14" t="n">
-        <v>89.51737788724712</v>
+        <v>89.51737788724753</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19637176967302</v>
+        <v>17.19637176967311</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3142683590117284</v>
+        <v>0.3142683590117299</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.101854950630919</v>
+        <v>2.101854950630929</v>
       </c>
       <c r="H15" t="n">
-        <v>20.29949386530388</v>
+        <v>20.29949386530398</v>
       </c>
       <c r="I15" t="n">
-        <v>72.36649720373998</v>
+        <v>72.36649720374032</v>
       </c>
       <c r="J15" t="n">
-        <v>198.579199524301</v>
+        <v>198.579199524302</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4034812165726</v>
+        <v>339.4034812165742</v>
       </c>
       <c r="L15" t="n">
-        <v>456.3698654867704</v>
+        <v>456.3698654867725</v>
       </c>
       <c r="M15" t="n">
-        <v>532.5621074471411</v>
+        <v>532.5621074471436</v>
       </c>
       <c r="N15" t="n">
-        <v>546.6574417432582</v>
+        <v>546.6574417432607</v>
       </c>
       <c r="O15" t="n">
-        <v>500.0847609950678</v>
+        <v>500.0847609950702</v>
       </c>
       <c r="P15" t="n">
-        <v>401.3621089498639</v>
+        <v>401.3621089498657</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.299940715624</v>
+        <v>268.2999407156253</v>
       </c>
       <c r="R15" t="n">
-        <v>130.4993801804004</v>
+        <v>130.4993801804011</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04103384176288</v>
+        <v>39.04103384176306</v>
       </c>
       <c r="T15" t="n">
-        <v>8.471950436972868</v>
+        <v>8.471950436972907</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382799309625605</v>
+        <v>0.1382799309625612</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762124584725087</v>
+        <v>1.762124584725095</v>
       </c>
       <c r="H16" t="n">
-        <v>15.6668894896467</v>
+        <v>15.66688948964677</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99189205700537</v>
+        <v>52.99189205700561</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5822081400637</v>
+        <v>124.5822081400642</v>
       </c>
       <c r="K16" t="n">
-        <v>204.7268381162419</v>
+        <v>204.7268381162429</v>
       </c>
       <c r="L16" t="n">
-        <v>261.9798678054008</v>
+        <v>261.979867805402</v>
       </c>
       <c r="M16" t="n">
-        <v>276.2210383128607</v>
+        <v>276.221038312862</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6531194061583</v>
+        <v>269.6531194061596</v>
       </c>
       <c r="O16" t="n">
-        <v>249.0683003936879</v>
+        <v>249.068300393689</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1209588652959</v>
+        <v>213.1209588652969</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5539049991162</v>
+        <v>147.5539049991169</v>
       </c>
       <c r="R16" t="n">
-        <v>79.23152905500254</v>
+        <v>79.23152905500291</v>
       </c>
       <c r="S16" t="n">
-        <v>30.70902571743628</v>
+        <v>30.70902571743643</v>
       </c>
       <c r="T16" t="n">
-        <v>7.529077771098098</v>
+        <v>7.529077771098133</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09611588643955032</v>
+        <v>0.09611588643955077</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928354487646606</v>
+        <v>3.928354487646623</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23126039661081</v>
+        <v>40.23126039661098</v>
       </c>
       <c r="I17" t="n">
-        <v>151.4478863849959</v>
+        <v>151.4478863849966</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4141766958964</v>
+        <v>333.4141766958979</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7014221579773</v>
+        <v>499.7014221579795</v>
       </c>
       <c r="L17" t="n">
-        <v>619.9238008092923</v>
+        <v>619.9238008092949</v>
       </c>
       <c r="M17" t="n">
-        <v>689.7846749289776</v>
+        <v>689.7846749289805</v>
       </c>
       <c r="N17" t="n">
-        <v>700.9461121170036</v>
+        <v>700.9461121170066</v>
       </c>
       <c r="O17" t="n">
-        <v>661.8835371804676</v>
+        <v>661.8835371804704</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9022857666919</v>
+        <v>564.9022857666944</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2180906778477</v>
+        <v>424.2180906778495</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7644975846313</v>
+        <v>246.7644975846324</v>
       </c>
       <c r="S17" t="n">
-        <v>89.51737788724712</v>
+        <v>89.51737788724751</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19637176967302</v>
+        <v>17.1963717696731</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3142683590117284</v>
+        <v>0.3142683590117298</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.101854950630919</v>
+        <v>2.101854950630928</v>
       </c>
       <c r="H18" t="n">
-        <v>20.29949386530388</v>
+        <v>20.29949386530397</v>
       </c>
       <c r="I18" t="n">
-        <v>72.36649720373998</v>
+        <v>72.36649720374029</v>
       </c>
       <c r="J18" t="n">
-        <v>198.579199524301</v>
+        <v>198.5791995243019</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4034812165726</v>
+        <v>339.4034812165741</v>
       </c>
       <c r="L18" t="n">
-        <v>456.3698654867704</v>
+        <v>456.3698654867724</v>
       </c>
       <c r="M18" t="n">
-        <v>532.5621074471411</v>
+        <v>532.5621074471434</v>
       </c>
       <c r="N18" t="n">
-        <v>546.6574417432582</v>
+        <v>546.6574417432606</v>
       </c>
       <c r="O18" t="n">
-        <v>500.0847609950678</v>
+        <v>500.08476099507</v>
       </c>
       <c r="P18" t="n">
-        <v>401.3621089498639</v>
+        <v>401.3621089498656</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.299940715624</v>
+        <v>268.2999407156252</v>
       </c>
       <c r="R18" t="n">
-        <v>130.4993801804004</v>
+        <v>130.499380180401</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04103384176288</v>
+        <v>39.04103384176305</v>
       </c>
       <c r="T18" t="n">
-        <v>8.471950436972868</v>
+        <v>8.471950436972906</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382799309625605</v>
+        <v>0.1382799309625611</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762124584725087</v>
+        <v>1.762124584725095</v>
       </c>
       <c r="H19" t="n">
-        <v>15.6668894896467</v>
+        <v>15.66688948964676</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99189205700537</v>
+        <v>52.99189205700559</v>
       </c>
       <c r="J19" t="n">
-        <v>124.5822081400637</v>
+        <v>124.5822081400642</v>
       </c>
       <c r="K19" t="n">
-        <v>204.7268381162419</v>
+        <v>204.7268381162428</v>
       </c>
       <c r="L19" t="n">
-        <v>261.9798678054008</v>
+        <v>261.9798678054019</v>
       </c>
       <c r="M19" t="n">
-        <v>276.2210383128607</v>
+        <v>276.2210383128619</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6531194061583</v>
+        <v>269.6531194061595</v>
       </c>
       <c r="O19" t="n">
-        <v>249.0683003936879</v>
+        <v>249.068300393689</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1209588652959</v>
+        <v>213.1209588652968</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5539049991162</v>
+        <v>147.5539049991168</v>
       </c>
       <c r="R19" t="n">
-        <v>79.23152905500254</v>
+        <v>79.23152905500288</v>
       </c>
       <c r="S19" t="n">
-        <v>30.70902571743628</v>
+        <v>30.70902571743641</v>
       </c>
       <c r="T19" t="n">
-        <v>7.529077771098098</v>
+        <v>7.52907777109813</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09611588643955032</v>
+        <v>0.09611588643955074</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928354487646611</v>
+        <v>3.928354487646623</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23126039661087</v>
+        <v>40.23126039661098</v>
       </c>
       <c r="I20" t="n">
-        <v>151.4478863849961</v>
+        <v>151.4478863849966</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4141766958969</v>
+        <v>333.4141766958979</v>
       </c>
       <c r="K20" t="n">
-        <v>499.701422157978</v>
+        <v>499.7014221579795</v>
       </c>
       <c r="L20" t="n">
-        <v>619.9238008092932</v>
+        <v>619.9238008092949</v>
       </c>
       <c r="M20" t="n">
-        <v>689.7846749289786</v>
+        <v>689.7846749289805</v>
       </c>
       <c r="N20" t="n">
-        <v>700.9461121170045</v>
+        <v>700.9461121170066</v>
       </c>
       <c r="O20" t="n">
-        <v>661.8835371804685</v>
+        <v>661.8835371804704</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9022857666927</v>
+        <v>564.9022857666944</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2180906778483</v>
+        <v>424.2180906778495</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7644975846317</v>
+        <v>246.7644975846324</v>
       </c>
       <c r="S20" t="n">
-        <v>89.51737788724725</v>
+        <v>89.51737788724751</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19637176967305</v>
+        <v>17.1963717696731</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3142683590117288</v>
+        <v>0.3142683590117298</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.101854950630922</v>
+        <v>2.101854950630928</v>
       </c>
       <c r="H21" t="n">
-        <v>20.29949386530391</v>
+        <v>20.29949386530397</v>
       </c>
       <c r="I21" t="n">
-        <v>72.3664972037401</v>
+        <v>72.36649720374029</v>
       </c>
       <c r="J21" t="n">
-        <v>198.5791995243013</v>
+        <v>198.5791995243019</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4034812165731</v>
+        <v>339.4034812165741</v>
       </c>
       <c r="L21" t="n">
-        <v>456.3698654867711</v>
+        <v>456.3698654867724</v>
       </c>
       <c r="M21" t="n">
-        <v>532.5621074471419</v>
+        <v>532.5621074471434</v>
       </c>
       <c r="N21" t="n">
-        <v>546.657441743259</v>
+        <v>546.6574417432606</v>
       </c>
       <c r="O21" t="n">
-        <v>500.0847609950685</v>
+        <v>500.08476099507</v>
       </c>
       <c r="P21" t="n">
-        <v>401.3621089498644</v>
+        <v>401.3621089498656</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.2999407156244</v>
+        <v>268.2999407156252</v>
       </c>
       <c r="R21" t="n">
-        <v>130.4993801804006</v>
+        <v>130.499380180401</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04103384176293</v>
+        <v>39.04103384176305</v>
       </c>
       <c r="T21" t="n">
-        <v>8.471950436972881</v>
+        <v>8.471950436972906</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382799309625607</v>
+        <v>0.1382799309625611</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.76212458472509</v>
+        <v>1.762124584725095</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66688948964672</v>
+        <v>15.66688948964676</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99189205700544</v>
+        <v>52.99189205700559</v>
       </c>
       <c r="J22" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400642</v>
       </c>
       <c r="K22" t="n">
-        <v>204.7268381162422</v>
+        <v>204.7268381162428</v>
       </c>
       <c r="L22" t="n">
-        <v>261.9798678054011</v>
+        <v>261.9798678054019</v>
       </c>
       <c r="M22" t="n">
-        <v>276.2210383128611</v>
+        <v>276.2210383128619</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6531194061587</v>
+        <v>269.6531194061595</v>
       </c>
       <c r="O22" t="n">
-        <v>249.0683003936882</v>
+        <v>249.068300393689</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1209588652962</v>
+        <v>213.1209588652968</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5539049991164</v>
+        <v>147.5539049991168</v>
       </c>
       <c r="R22" t="n">
-        <v>79.23152905500265</v>
+        <v>79.23152905500288</v>
       </c>
       <c r="S22" t="n">
-        <v>30.70902571743633</v>
+        <v>30.70902571743641</v>
       </c>
       <c r="T22" t="n">
-        <v>7.529077771098109</v>
+        <v>7.52907777109813</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09611588643955046</v>
+        <v>0.09611588643955074</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928354487646613</v>
+        <v>3.928354487646624</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23126039661089</v>
+        <v>40.231260396611</v>
       </c>
       <c r="I23" t="n">
-        <v>151.4478863849962</v>
+        <v>151.4478863849966</v>
       </c>
       <c r="J23" t="n">
-        <v>333.414176695897</v>
+        <v>333.414176695898</v>
       </c>
       <c r="K23" t="n">
-        <v>499.7014221579782</v>
+        <v>499.7014221579797</v>
       </c>
       <c r="L23" t="n">
-        <v>619.9238008092934</v>
+        <v>619.9238008092951</v>
       </c>
       <c r="M23" t="n">
-        <v>689.7846749289788</v>
+        <v>689.7846749289808</v>
       </c>
       <c r="N23" t="n">
-        <v>700.9461121170048</v>
+        <v>700.9461121170068</v>
       </c>
       <c r="O23" t="n">
-        <v>661.8835371804687</v>
+        <v>661.8835371804706</v>
       </c>
       <c r="P23" t="n">
-        <v>564.9022857666929</v>
+        <v>564.9022857666945</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2180906778485</v>
+        <v>424.2180906778497</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7644975846318</v>
+        <v>246.7644975846325</v>
       </c>
       <c r="S23" t="n">
-        <v>89.51737788724728</v>
+        <v>89.51737788724753</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19637176967306</v>
+        <v>17.19637176967311</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3142683590117289</v>
+        <v>0.3142683590117299</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.101854950630923</v>
+        <v>2.101854950630929</v>
       </c>
       <c r="H24" t="n">
-        <v>20.29949386530392</v>
+        <v>20.29949386530398</v>
       </c>
       <c r="I24" t="n">
-        <v>72.36649720374011</v>
+        <v>72.36649720374032</v>
       </c>
       <c r="J24" t="n">
-        <v>198.5791995243014</v>
+        <v>198.579199524302</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4034812165732</v>
+        <v>339.4034812165742</v>
       </c>
       <c r="L24" t="n">
-        <v>456.3698654867712</v>
+        <v>456.3698654867725</v>
       </c>
       <c r="M24" t="n">
-        <v>532.562107447142</v>
+        <v>532.5621074471436</v>
       </c>
       <c r="N24" t="n">
-        <v>546.6574417432591</v>
+        <v>546.6574417432607</v>
       </c>
       <c r="O24" t="n">
-        <v>500.0847609950687</v>
+        <v>500.0847609950702</v>
       </c>
       <c r="P24" t="n">
-        <v>401.3621089498646</v>
+        <v>401.3621089498657</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.2999407156245</v>
+        <v>268.2999407156253</v>
       </c>
       <c r="R24" t="n">
-        <v>130.4993801804007</v>
+        <v>130.4993801804011</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04103384176295</v>
+        <v>39.04103384176306</v>
       </c>
       <c r="T24" t="n">
-        <v>8.471950436972882</v>
+        <v>8.471950436972907</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382799309625608</v>
+        <v>0.1382799309625612</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.76212458472509</v>
+        <v>1.762124584725095</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66688948964672</v>
+        <v>15.66688948964677</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99189205700546</v>
+        <v>52.99189205700561</v>
       </c>
       <c r="J25" t="n">
-        <v>124.5822081400639</v>
+        <v>124.5822081400642</v>
       </c>
       <c r="K25" t="n">
-        <v>204.7268381162423</v>
+        <v>204.7268381162429</v>
       </c>
       <c r="L25" t="n">
-        <v>261.9798678054012</v>
+        <v>261.979867805402</v>
       </c>
       <c r="M25" t="n">
-        <v>276.2210383128612</v>
+        <v>276.221038312862</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6531194061588</v>
+        <v>269.6531194061596</v>
       </c>
       <c r="O25" t="n">
-        <v>249.0683003936883</v>
+        <v>249.068300393689</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1209588652963</v>
+        <v>213.1209588652969</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5539049991164</v>
+        <v>147.5539049991169</v>
       </c>
       <c r="R25" t="n">
-        <v>79.23152905500268</v>
+        <v>79.23152905500291</v>
       </c>
       <c r="S25" t="n">
-        <v>30.70902571743634</v>
+        <v>30.70902571743643</v>
       </c>
       <c r="T25" t="n">
-        <v>7.529077771098112</v>
+        <v>7.529077771098133</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09611588643955049</v>
+        <v>0.09611588643955077</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047529</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>152.3682721692101</v>
+        <v>152.3682721692117</v>
       </c>
       <c r="K11" t="n">
-        <v>401.6888090960711</v>
+        <v>292.2050915844708</v>
       </c>
       <c r="L11" t="n">
-        <v>801.8186003897555</v>
+        <v>801.8186003897583</v>
       </c>
       <c r="M11" t="n">
-        <v>908.9519751945373</v>
+        <v>908.9519751945406</v>
       </c>
       <c r="N11" t="n">
-        <v>908.8799729323969</v>
+        <v>908.8799729324001</v>
       </c>
       <c r="O11" t="n">
-        <v>812.5855070215262</v>
+        <v>812.5855070215292</v>
       </c>
       <c r="P11" t="n">
-        <v>333.6692900114223</v>
+        <v>655.4679981829076</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.2273914633029</v>
+        <v>201.9124008034002</v>
       </c>
       <c r="R11" t="n">
-        <v>31.1789597704992</v>
+        <v>31.17895977050034</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.74157285763434</v>
+        <v>71.74157285763528</v>
       </c>
       <c r="K12" t="n">
-        <v>466.0272792547922</v>
+        <v>371.4734389077846</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8154857068963</v>
+        <v>317.8154857068984</v>
       </c>
       <c r="M12" t="n">
-        <v>390.4280735251228</v>
+        <v>390.4280735251253</v>
       </c>
       <c r="N12" t="n">
-        <v>415.315729659925</v>
+        <v>415.3157296599275</v>
       </c>
       <c r="O12" t="n">
-        <v>357.4885165506234</v>
+        <v>357.4885165506257</v>
       </c>
       <c r="P12" t="n">
-        <v>267.3877015355336</v>
+        <v>267.3877015355355</v>
       </c>
       <c r="Q12" t="n">
-        <v>243.8416140184578</v>
+        <v>338.3954543654528</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.22302802339088</v>
+        <v>31.22302802339146</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4573462903591</v>
+        <v>182.45734629036</v>
       </c>
       <c r="L13" t="n">
-        <v>289.5698930657169</v>
+        <v>289.5698930657181</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8049152747039</v>
+        <v>315.8049152747026</v>
       </c>
       <c r="N13" t="n">
-        <v>313.7852917853869</v>
+        <v>313.7852917853882</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6534283077276</v>
+        <v>273.6534283077287</v>
       </c>
       <c r="P13" t="n">
-        <v>210.3995181301894</v>
+        <v>210.3995181301904</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.3918617474218</v>
+        <v>61.39186174742248</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>152.3682721692101</v>
+        <v>152.3682721692117</v>
       </c>
       <c r="K14" t="n">
-        <v>603.7569836841615</v>
+        <v>603.7569836841639</v>
       </c>
       <c r="L14" t="n">
-        <v>801.8186003897555</v>
+        <v>801.8186003897583</v>
       </c>
       <c r="M14" t="n">
-        <v>908.9519751945373</v>
+        <v>908.9519751945406</v>
       </c>
       <c r="N14" t="n">
-        <v>908.8799729323969</v>
+        <v>908.8799729324001</v>
       </c>
       <c r="O14" t="n">
-        <v>812.5855070215262</v>
+        <v>812.5855070215292</v>
       </c>
       <c r="P14" t="n">
-        <v>343.9161060832363</v>
+        <v>343.9161060832142</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.9124008033982</v>
+        <v>201.9124008034002</v>
       </c>
       <c r="R14" t="n">
-        <v>31.1789597704992</v>
+        <v>31.17895977050034</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.74157285763434</v>
+        <v>71.74157285763528</v>
       </c>
       <c r="K15" t="n">
-        <v>210.7103813401883</v>
+        <v>466.0272792547938</v>
       </c>
       <c r="L15" t="n">
-        <v>688.6558310103554</v>
+        <v>317.8154857068984</v>
       </c>
       <c r="M15" t="n">
-        <v>390.4280735251228</v>
+        <v>390.4280735251253</v>
       </c>
       <c r="N15" t="n">
-        <v>415.315729659925</v>
+        <v>415.3157296599275</v>
       </c>
       <c r="O15" t="n">
-        <v>357.4885165506234</v>
+        <v>357.4885165506257</v>
       </c>
       <c r="P15" t="n">
-        <v>267.3877015355336</v>
+        <v>382.9111489243753</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.3181666296025</v>
+        <v>128.3181666296038</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.22302802339088</v>
+        <v>31.22302802339146</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4573462903591</v>
+        <v>182.45734629036</v>
       </c>
       <c r="L16" t="n">
-        <v>289.5698930657169</v>
+        <v>289.5698930657181</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8049152747013</v>
+        <v>315.8049152747026</v>
       </c>
       <c r="N16" t="n">
-        <v>313.7852917853869</v>
+        <v>313.7852917853882</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6534283077276</v>
+        <v>273.6534283077287</v>
       </c>
       <c r="P16" t="n">
-        <v>210.3995181301913</v>
+        <v>210.3995181301904</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.3918617474218</v>
+        <v>61.39186174742248</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.3682721692101</v>
+        <v>152.3682721692116</v>
       </c>
       <c r="K17" t="n">
-        <v>603.7569836841615</v>
+        <v>603.7569836841637</v>
       </c>
       <c r="L17" t="n">
-        <v>801.8186003897555</v>
+        <v>801.8186003897581</v>
       </c>
       <c r="M17" t="n">
-        <v>908.9519751945373</v>
+        <v>908.9519751945403</v>
       </c>
       <c r="N17" t="n">
-        <v>908.8799729323969</v>
+        <v>908.8799729323998</v>
       </c>
       <c r="O17" t="n">
-        <v>812.5855070215262</v>
+        <v>812.585507021529</v>
       </c>
       <c r="P17" t="n">
-        <v>343.9161060832354</v>
+        <v>343.916106083217</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.9124008033982</v>
+        <v>201.9124008034001</v>
       </c>
       <c r="R17" t="n">
-        <v>31.1789597704992</v>
+        <v>31.17895977050026</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.74157285763434</v>
+        <v>197.832608198044</v>
       </c>
       <c r="K18" t="n">
-        <v>201.5620422422136</v>
+        <v>245.3824035673767</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8154857068963</v>
+        <v>317.8154857068982</v>
       </c>
       <c r="M18" t="n">
-        <v>390.4280735251228</v>
+        <v>390.4280735251251</v>
       </c>
       <c r="N18" t="n">
-        <v>795.3044140613587</v>
+        <v>415.3157296599273</v>
       </c>
       <c r="O18" t="n">
-        <v>357.4885165506234</v>
+        <v>357.4885165506255</v>
       </c>
       <c r="P18" t="n">
-        <v>267.3877015355336</v>
+        <v>267.3877015355354</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.3181666296025</v>
+        <v>338.3954543654527</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.22302802339088</v>
+        <v>31.22302802339142</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4573462903591</v>
+        <v>182.4573462903599</v>
       </c>
       <c r="L19" t="n">
-        <v>289.5698930657169</v>
+        <v>289.569893065718</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8049152747013</v>
+        <v>315.8049152747025</v>
       </c>
       <c r="N19" t="n">
-        <v>313.7852917853869</v>
+        <v>313.785291785388</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6534283077276</v>
+        <v>273.6534283077286</v>
       </c>
       <c r="P19" t="n">
-        <v>210.3995181301894</v>
+        <v>210.3995181301903</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.3918617474218</v>
+        <v>61.39186174742242</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.3682721692106</v>
+        <v>152.3682721692116</v>
       </c>
       <c r="K20" t="n">
-        <v>603.7569836841622</v>
+        <v>401.6888090960511</v>
       </c>
       <c r="L20" t="n">
-        <v>384.157385839306</v>
+        <v>801.8186003897581</v>
       </c>
       <c r="M20" t="n">
-        <v>908.9519751945384</v>
+        <v>908.9519751945403</v>
       </c>
       <c r="N20" t="n">
-        <v>908.8799729323978</v>
+        <v>908.8799729323998</v>
       </c>
       <c r="O20" t="n">
-        <v>812.5855070215271</v>
+        <v>812.585507021529</v>
       </c>
       <c r="P20" t="n">
-        <v>549.2623299737752</v>
+        <v>333.6692900114248</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.2273914633035</v>
+        <v>414.2273914633047</v>
       </c>
       <c r="R20" t="n">
-        <v>31.17895977049955</v>
+        <v>31.17895977050026</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.74157285763462</v>
+        <v>187.2650202464762</v>
       </c>
       <c r="K21" t="n">
-        <v>466.0272792547927</v>
+        <v>466.0272792547937</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8154857068969</v>
+        <v>317.8154857068982</v>
       </c>
       <c r="M21" t="n">
-        <v>390.4280735251236</v>
+        <v>390.4280735251251</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3157296599258</v>
+        <v>415.3157296599273</v>
       </c>
       <c r="O21" t="n">
-        <v>357.4885165506241</v>
+        <v>357.4885165506255</v>
       </c>
       <c r="P21" t="n">
-        <v>267.3877015355342</v>
+        <v>267.3877015355354</v>
       </c>
       <c r="Q21" t="n">
-        <v>243.8416140184541</v>
+        <v>128.3181666296036</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.22302802339107</v>
+        <v>31.22302802339142</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4573462903593</v>
+        <v>182.4573462903599</v>
       </c>
       <c r="L22" t="n">
-        <v>289.5698930657172</v>
+        <v>289.569893065718</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8049152747017</v>
+        <v>315.8049152747025</v>
       </c>
       <c r="N22" t="n">
-        <v>313.7852917853872</v>
+        <v>313.785291785388</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6534283077279</v>
+        <v>273.6534283077286</v>
       </c>
       <c r="P22" t="n">
-        <v>210.3995181301897</v>
+        <v>210.3995181301903</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.391861747422</v>
+        <v>61.39186174742242</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>321.4648873412845</v>
+        <v>152.3682721692117</v>
       </c>
       <c r="K23" t="n">
-        <v>279.6115711129977</v>
+        <v>603.7569836841639</v>
       </c>
       <c r="L23" t="n">
-        <v>801.8186003897566</v>
+        <v>801.8186003897583</v>
       </c>
       <c r="M23" t="n">
-        <v>908.9519751945386</v>
+        <v>908.9519751945406</v>
       </c>
       <c r="N23" t="n">
-        <v>908.879972932398</v>
+        <v>908.8799729324001</v>
       </c>
       <c r="O23" t="n">
-        <v>812.5855070215273</v>
+        <v>812.5855070215292</v>
       </c>
       <c r="P23" t="n">
-        <v>333.6692900114234</v>
+        <v>343.9161060832142</v>
       </c>
       <c r="Q23" t="n">
-        <v>301.4915944013116</v>
+        <v>201.9124008034002</v>
       </c>
       <c r="R23" t="n">
-        <v>96.89537964348207</v>
+        <v>31.17895977050034</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>197.8326081980435</v>
+        <v>197.8326081980441</v>
       </c>
       <c r="K24" t="n">
-        <v>245.3824035673844</v>
+        <v>245.3824035673757</v>
       </c>
       <c r="L24" t="n">
-        <v>317.8154857068971</v>
+        <v>317.8154857068984</v>
       </c>
       <c r="M24" t="n">
-        <v>390.4280735251237</v>
+        <v>390.4280735251253</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3157296599259</v>
+        <v>415.3157296599275</v>
       </c>
       <c r="O24" t="n">
-        <v>357.4885165506243</v>
+        <v>357.4885165506257</v>
       </c>
       <c r="P24" t="n">
-        <v>267.3877015355343</v>
+        <v>267.3877015355355</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.3954543654521</v>
+        <v>338.3954543654528</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.22302802339111</v>
+        <v>31.22302802339146</v>
       </c>
       <c r="K25" t="n">
-        <v>182.4573462903594</v>
+        <v>182.45734629036</v>
       </c>
       <c r="L25" t="n">
-        <v>289.5698930657173</v>
+        <v>289.5698930657181</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8049152747018</v>
+        <v>315.8049152747026</v>
       </c>
       <c r="N25" t="n">
-        <v>313.7852917853874</v>
+        <v>313.7852917853882</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6534283077279</v>
+        <v>273.6534283077287</v>
       </c>
       <c r="P25" t="n">
-        <v>210.3995181301898</v>
+        <v>210.3995181301904</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.39186174742206</v>
+        <v>61.39186174742248</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>654.7059126660149</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.3942385378936</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165882</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37476,13 +37476,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165882</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37713,13 +37713,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
